--- a/biology/Botanique/Genista_florida/Genista_florida.xlsx
+++ b/biology/Botanique/Genista_florida/Genista_florida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genista florida, de nom commun genêt floribond[2] ou genêt fleuri[2], est une espèce de plante de la famille des Fabaceae et du genre Genista.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Genista florida, de nom commun genêt floribond ou genêt fleuri, est une espèce de plante de la famille des Fabaceae et du genre Genista.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Genista florida est un arbuste très ramifié pouvant atteindre 3 m. Les tiges ont entre 8 et 10 côtes légèrement poilues en forme de T.
-Les feuilles sont simples, plates, lancéolées[3] avec un pied en forme de cône (une feuille avec un pied de plus en plus étroit) et un court pétiole. Le haut est poilu et le bas est soyeux.
+Les feuilles sont simples, plates, lancéolées avec un pied en forme de cône (une feuille avec un pied de plus en plus étroit) et un court pétiole. Le haut est poilu et le bas est soyeux.
 Il fleurit en grappes de jusqu'à 30 fleurs jaunes de mai à juillet. Les fleurs sont jaunes et en forme de papillon, ont une corolle en cinq parties et deux pétales latérales attachées.
 Le fruit est une gousse allongée à poils soyeux de 15 à 25 mm de long contenant 3 à 6 graines à l'intérieur. Il se développe à la fin de l'été.
 </t>
@@ -545,10 +559,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Genista florida est présent dans les forêts dégradées, les clairières et les landes. Il préfère les sols secs et acides pauvres en azote.
-Genista florida se trouve dans la majeure partie de la péninsule ibérique[1]. Il s'étend à l'Afrique du Nord[4] et aux Pyrénées.
+Genista florida se trouve dans la majeure partie de la péninsule ibérique. Il s'étend à l'Afrique du Nord et aux Pyrénées.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Parasite</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La fleur a pour parasite Odontothrips loti (sv) et Aphis cytisorum (sv). Le fruit a pour parasite Exapion putoni et Exapion compactum. La feuille a pour parasite Platycranus metriorrhynchus, Heterogynis chapmani, Heterogynis paradoxa (en), Brachyderes lusitanicus (en), Gonioctena leprieuri (es), Gonioctena olivacea, Agonopterix assimilella (de), Syncopacma suecicella (en), Exapion laufferi, Phyllonorycter genistella (en). La racine a pour parasite Hylastinus obscurus (en) et Calomicrus circumfusus (no). La tige a pour parasite Agrilus moriscus, 
-Phloeotribus rhododactylus (pt), Phyllonorycter floridae (nl), Phyllonorycter echinosparti (en), Phyllonorycter vueltas (en)[5].
+Phloeotribus rhododactylus (pt), Phyllonorycter floridae (nl), Phyllonorycter echinosparti (en), Phyllonorycter vueltas (en).
 </t>
         </is>
       </c>
